--- a/data/extracted_data/raw_round2/Oh_2024_Fig_4.xlsx
+++ b/data/extracted_data/raw_round2/Oh_2024_Fig_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81E7A50D-AB46-5B43-BF5D-725F26A0DDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{81E7A50D-AB46-5B43-BF5D-725F26A0DDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{073EA69C-57EF-124E-9FC0-E10B423A6B5B}"/>
   <bookViews>
-    <workbookView xWindow="19120" yWindow="5340" windowWidth="27640" windowHeight="16940" xr2:uid="{F66C3C04-4ABA-B54F-92DC-29C7BEF49A79}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{F66C3C04-4ABA-B54F-92DC-29C7BEF49A79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
     <t>Alexandrium catenella</t>
   </si>
   <si>
-    <t>time</t>
+    <t>A.pacificum</t>
   </si>
   <si>
-    <t>toxticity</t>
+    <t>day</t>
   </si>
   <si>
-    <t>A.pacificum</t>
+    <t>toxicity</t>
+  </si>
+  <si>
+    <t>species</t>
   </si>
 </sst>
 </file>
@@ -107,9 +107,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -147,7 +147,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -253,7 +253,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,7 +395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,7 +417,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -428,10 +428,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0322830578512301</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>7.0454545454545396</v>
@@ -439,10 +439,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>2.0555268595041301</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2.1590909090908998</v>
@@ -450,10 +450,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>3.0080061983471</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1.7045454545454499</v>
@@ -461,10 +461,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>4.0126549586776799</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>2.72727272727272</v>
@@ -472,10 +472,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>5.0069731404958597</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>1.47727272727272</v>
@@ -483,10 +483,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>6.0069731404958597</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1.47727272727272</v>
@@ -494,10 +494,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>7.00490702479338</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>1.02272727272727</v>
@@ -505,10 +505,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>8.0087809917355308</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>1.87499999999999</v>
@@ -516,10 +516,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>9.0077479338842892</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>1.64772727272727</v>
@@ -527,10 +527,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0322830578512301</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0.92045454545454497</v>
@@ -538,10 +538,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>2.0555268595041301</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>2.1818181818181799</v>
@@ -549,10 +549,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>3.0080061983471</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>0.85227272727272696</v>
@@ -560,10 +560,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
         <v>4</v>
-      </c>
-      <c r="B14" s="1">
-        <v>4.0126549586776799</v>
       </c>
       <c r="C14">
         <v>0.92045454545454497</v>
@@ -571,10 +571,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>5.0069731404958597</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>0.69886363636363602</v>
@@ -582,10 +582,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>6.0069731404958597</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>0.59659090909090895</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>7.00490702479338</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>0.61363636363636298</v>
@@ -604,10 +604,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>8.0087809917355308</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>0.5625</v>
@@ -615,10 +615,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1">
-        <v>9.0077479338842892</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>0.52840909090909005</v>
